--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B314E13E-5FBA-4305-BDA9-E8FF6975903D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E8323-39F9-486B-BC4A-3E48877960CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD27DC6B-7A6F-4F5C-BD54-2F31EFB459D2}"/>
+    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{BD27DC6B-7A6F-4F5C-BD54-2F31EFB459D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
+    <sheet name="Vorlage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Zeitplan Informatikprojekt</t>
   </si>
@@ -67,6 +68,54 @@
   </si>
   <si>
     <t>Grafik</t>
+  </si>
+  <si>
+    <t>Übersicht</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Schiene 1</t>
+  </si>
+  <si>
+    <t>Schiene 2</t>
+  </si>
+  <si>
+    <t>Schiene 3</t>
+  </si>
+  <si>
+    <t>weg</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.1</t>
   </si>
 </sst>
 </file>
@@ -90,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -156,6 +211,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -478,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F354C-683D-4180-803A-90C6BDBA5917}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,82 +743,91 @@
         <v>43569</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43570</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43571</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43572</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43573</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43574</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43575</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43576</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43577</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43578</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43579</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43580</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43581</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43582</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43583</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43584</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43585</v>
       </c>
@@ -827,97 +912,802 @@
         <v>43601</v>
       </c>
     </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>43602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>43603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>43604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>43615</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>43616</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43618</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43619</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="B78:E81"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2116CB-1B50-46F5-920A-D6FFDE8ADABD}">
+  <dimension ref="A1:N83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43542</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43543</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="I7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43544</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43545</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43546</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43547</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43548</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43549</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43550</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43551</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43552</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43553</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43554</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43555</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43557</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43558</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43559</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43560</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43561</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43562</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43564</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43565</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43566</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43567</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43568</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43569</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43570</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43571</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43572</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43573</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43574</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43575</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43576</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43577</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43578</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43579</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43580</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43581</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43582</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43583</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43584</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43587</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43588</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43589</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43590</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43591</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43592</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43593</v>
+      </c>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43594</v>
+      </c>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>43595</v>
+      </c>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43596</v>
+      </c>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>43597</v>
+      </c>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>43598</v>
+      </c>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>43600</v>
+      </c>
+    </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>43602</v>
+        <v>43601</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>43603</v>
+        <v>43602</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>43604</v>
+        <v>43603</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>43605</v>
+        <v>43604</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>43606</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>43607</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>43608</v>
+        <v>43607</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>43609</v>
+        <v>43608</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>43610</v>
+        <v>43609</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>43611</v>
+        <v>43610</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>43612</v>
+        <v>43611</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>43613</v>
+        <v>43612</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>43614</v>
+        <v>43613</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>43615</v>
+        <v>43614</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>43616</v>
+        <v>43615</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>43617</v>
+        <v>43616</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>43618</v>
+        <v>43617</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>43619</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="C41:C62"/>
+    <mergeCell ref="D41:D55"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C6:C40"/>
+    <mergeCell ref="B20:B40"/>
+    <mergeCell ref="D6:D19"/>
+    <mergeCell ref="E6:E33"/>
+    <mergeCell ref="D20:D40"/>
+    <mergeCell ref="E34:E40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E8323-39F9-486B-BC4A-3E48877960CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BF389-7F90-48B1-B7F7-F2DBD32C4AE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{BD27DC6B-7A6F-4F5C-BD54-2F31EFB459D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BD27DC6B-7A6F-4F5C-BD54-2F31EFB459D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Zeitplan Informatikprojekt</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>6.1</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Meilenstein 1: grundlegendes Spiel: Spiellogik+Grafik</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,6 +239,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -554,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F354C-683D-4180-803A-90C6BDBA5917}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,11 +601,21 @@
       <c r="A5" s="2">
         <v>43542</v>
       </c>
+      <c r="B5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43543</v>
       </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
@@ -617,171 +639,291 @@
       <c r="A7" s="2">
         <v>43544</v>
       </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43545</v>
       </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43546</v>
       </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43547</v>
       </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43548</v>
       </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43549</v>
       </c>
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43550</v>
       </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43551</v>
       </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43552</v>
       </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43553</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43554</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43555</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43556</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43557</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43558</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43559</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43560</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43561</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43562</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43563</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43564</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43565</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43566</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43567</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43568</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43569</v>
       </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43570</v>
       </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43571</v>
       </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43572</v>
       </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43573</v>
       </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43574</v>
       </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43575</v>
       </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43576</v>
       </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43577</v>
       </c>
+      <c r="C40" s="11"/>
       <c r="E40" s="9" t="s">
         <v>17</v>
       </c>
@@ -790,36 +932,42 @@
       <c r="A41" s="2">
         <v>43578</v>
       </c>
+      <c r="C41" s="11"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43579</v>
       </c>
+      <c r="C42" s="11"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43580</v>
       </c>
+      <c r="C43" s="11"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43581</v>
       </c>
+      <c r="C44" s="11"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43582</v>
       </c>
+      <c r="C45" s="11"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43583</v>
       </c>
+      <c r="C46" s="11"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1021,9 +1169,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="E40:E46"/>
     <mergeCell ref="B78:E81"/>
+    <mergeCell ref="B5:E11"/>
+    <mergeCell ref="C12:C46"/>
+    <mergeCell ref="E12:E25"/>
+    <mergeCell ref="B12:B39"/>
+    <mergeCell ref="D12:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1034,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2116CB-1B50-46F5-920A-D6FFDE8ADABD}">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,27 +1222,21 @@
       <c r="A6" s="2">
         <v>43542</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43543</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1113,55 +1260,63 @@
       <c r="A8" s="2">
         <v>43544</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43545</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43546</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43547</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43548</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43549</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1221,20 +1376,16 @@
       <c r="A20" s="2">
         <v>43556</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43557</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="11"/>
       <c r="D21" s="15"/>
       <c r="E21" s="13"/>
@@ -1243,7 +1394,7 @@
       <c r="A22" s="2">
         <v>43558</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="11"/>
       <c r="D22" s="15"/>
       <c r="E22" s="13"/>
@@ -1252,7 +1403,7 @@
       <c r="A23" s="2">
         <v>43559</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="11"/>
       <c r="D23" s="15"/>
       <c r="E23" s="13"/>
@@ -1261,7 +1412,7 @@
       <c r="A24" s="2">
         <v>43560</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="11"/>
       <c r="D24" s="15"/>
       <c r="E24" s="13"/>
@@ -1270,7 +1421,7 @@
       <c r="A25" s="2">
         <v>43561</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="11"/>
       <c r="D25" s="15"/>
       <c r="E25" s="13"/>
@@ -1279,7 +1430,7 @@
       <c r="A26" s="2">
         <v>43562</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="11"/>
       <c r="D26" s="15"/>
       <c r="E26" s="13"/>
@@ -1288,16 +1439,18 @@
       <c r="A27" s="2">
         <v>43563</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43564</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="11"/>
       <c r="D28" s="15"/>
       <c r="E28" s="13"/>
@@ -1306,7 +1459,7 @@
       <c r="A29" s="2">
         <v>43565</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="11"/>
       <c r="D29" s="15"/>
       <c r="E29" s="13"/>
@@ -1315,7 +1468,7 @@
       <c r="A30" s="2">
         <v>43566</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="11"/>
       <c r="D30" s="15"/>
       <c r="E30" s="13"/>
@@ -1324,7 +1477,7 @@
       <c r="A31" s="2">
         <v>43567</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="11"/>
       <c r="D31" s="15"/>
       <c r="E31" s="13"/>
@@ -1333,348 +1486,388 @@
       <c r="A32" s="2">
         <v>43568</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="11"/>
       <c r="D32" s="15"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43569</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="11"/>
       <c r="D33" s="15"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43570</v>
       </c>
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43571</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43572</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43573</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43574</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43575</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43576</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43577</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43578</v>
       </c>
       <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="11"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43579</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43580</v>
       </c>
       <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" s="11"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43581</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" s="11"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43582</v>
       </c>
       <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="11"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43583</v>
       </c>
       <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="11"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43584</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43585</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43586</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43587</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43588</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43589</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43590</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43591</v>
       </c>
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C55" s="12"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43592</v>
       </c>
+      <c r="B56" s="11"/>
       <c r="C56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43593</v>
       </c>
+      <c r="B57" s="11"/>
       <c r="C57" s="12"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43594</v>
       </c>
+      <c r="B58" s="11"/>
       <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43595</v>
       </c>
+      <c r="B59" s="11"/>
       <c r="C59" s="12"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43596</v>
       </c>
+      <c r="B60" s="11"/>
       <c r="C60" s="12"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43597</v>
       </c>
+      <c r="B61" s="11"/>
       <c r="C61" s="12"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43598</v>
       </c>
+      <c r="B62" s="11"/>
       <c r="C62" s="12"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43599</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43600</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43601</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43602</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43603</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43604</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43605</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43606</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43607</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43608</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43609</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43610</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43611</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43612</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43613</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43614</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43615</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43616</v>
       </c>
@@ -1695,18 +1888,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B6:E12"/>
+    <mergeCell ref="B13:B33"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="B55:B69"/>
+    <mergeCell ref="C48:C69"/>
+    <mergeCell ref="D48:D62"/>
+    <mergeCell ref="C13:C47"/>
+    <mergeCell ref="B34:B54"/>
+    <mergeCell ref="D13:D26"/>
+    <mergeCell ref="E13:E40"/>
+    <mergeCell ref="D27:D47"/>
     <mergeCell ref="E41:E47"/>
-    <mergeCell ref="B41:B55"/>
-    <mergeCell ref="C41:C62"/>
-    <mergeCell ref="D41:D55"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="C6:C40"/>
-    <mergeCell ref="B20:B40"/>
-    <mergeCell ref="D6:D19"/>
-    <mergeCell ref="E6:E33"/>
-    <mergeCell ref="D20:D40"/>
-    <mergeCell ref="E34:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias Haußler\Documents\Schule\Informatik\Projekt\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BF389-7F90-48B1-B7F7-F2DBD32C4AE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE04007-A948-42A3-945F-19F3742DA54E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BD27DC6B-7A6F-4F5C-BD54-2F31EFB459D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD27DC6B-7A6F-4F5C-BD54-2F31EFB459D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
@@ -223,13 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -238,10 +238,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0F354C-683D-4180-803A-90C6BDBA5917}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -601,21 +601,21 @@
       <c r="A5" s="2">
         <v>43542</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43543</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
@@ -639,46 +639,46 @@
       <c r="A7" s="2">
         <v>43544</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43545</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43546</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43547</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43548</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -693,7 +693,7 @@
       <c r="D12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="11"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -713,7 +713,7 @@
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -722,7 +722,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -731,7 +731,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -740,7 +740,7 @@
       <c r="B17" s="13"/>
       <c r="C17" s="11"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -749,7 +749,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -758,7 +758,7 @@
       <c r="B19" s="13"/>
       <c r="C19" s="11"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -767,7 +767,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="11"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -776,7 +776,7 @@
       <c r="B21" s="13"/>
       <c r="C21" s="11"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -785,7 +785,7 @@
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -794,7 +794,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -803,7 +803,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="11"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -812,7 +812,7 @@
       <c r="B25" s="13"/>
       <c r="C25" s="11"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1187,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2116CB-1B50-46F5-920A-D6FFDE8ADABD}">
   <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -1222,21 +1222,21 @@
       <c r="A6" s="2">
         <v>43542</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43543</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1260,46 +1260,46 @@
       <c r="A8" s="2">
         <v>43544</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43545</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43546</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43547</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43548</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1311,7 +1311,7 @@
       <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="15"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="15"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="15"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="13"/>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="15"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="15"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="15"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="15"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1571,8 +1571,8 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1582,8 +1582,8 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -1591,8 +1591,8 @@
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -1600,8 +1600,8 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -1609,8 +1609,8 @@
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -1618,8 +1618,8 @@
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
@@ -1627,21 +1627,21 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43584</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F48" t="s">
@@ -1653,54 +1653,54 @@
         <v>43585</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43586</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43587</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43588</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="10"/>
+      <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43589</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="10"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43590</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="10"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
@@ -1709,7 +1709,7 @@
       <c r="B55" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
         <v>43592</v>
       </c>
       <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
         <v>43593</v>
       </c>
       <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>43594</v>
       </c>
       <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>43595</v>
       </c>
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,7 +1749,7 @@
         <v>43596</v>
       </c>
       <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>43597</v>
       </c>
       <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>43598</v>
       </c>
       <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1773,49 +1773,49 @@
         <v>43599</v>
       </c>
       <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43600</v>
       </c>
       <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43601</v>
       </c>
       <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43602</v>
       </c>
       <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43603</v>
       </c>
       <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43604</v>
       </c>
       <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43605</v>
       </c>
       <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
